--- a/data/pca/factorExposure/factorExposure_2011-04-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-04-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +738,63 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.006204807087132694</v>
+        <v>-0.01223349348699712</v>
       </c>
       <c r="C2">
-        <v>-0.001581724271086121</v>
+        <v>0.005561542756651336</v>
       </c>
       <c r="D2">
-        <v>-0.05047973002788811</v>
+        <v>-0.02378959713391587</v>
       </c>
       <c r="E2">
-        <v>-0.00851836372086133</v>
+        <v>0.01512070883782351</v>
       </c>
       <c r="F2">
-        <v>0.0113813295798769</v>
+        <v>-0.002512535452205504</v>
       </c>
       <c r="G2">
-        <v>0.01720415466946281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.008631904741170303</v>
+      </c>
+      <c r="H2">
+        <v>-0.02619169776848909</v>
+      </c>
+      <c r="I2">
+        <v>0.04931577368899455</v>
+      </c>
+      <c r="J2">
+        <v>0.03481721394054929</v>
+      </c>
+      <c r="K2">
+        <v>-0.03636314557438203</v>
+      </c>
+      <c r="L2">
+        <v>0.004629904713493902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +814,63 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.0984783601937832</v>
+        <v>-0.1113456785834874</v>
       </c>
       <c r="C4">
-        <v>-0.04258573371356152</v>
+        <v>-0.06257760883683021</v>
       </c>
       <c r="D4">
-        <v>-0.04074221979420094</v>
+        <v>-0.02402535292494773</v>
       </c>
       <c r="E4">
-        <v>0.052960769872123</v>
+        <v>0.01838731383025607</v>
       </c>
       <c r="F4">
-        <v>0.04132286623880135</v>
+        <v>0.1598260335681161</v>
       </c>
       <c r="G4">
-        <v>0.03191556242266615</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.01660837804702221</v>
+      </c>
+      <c r="H4">
+        <v>-0.02491922292168538</v>
+      </c>
+      <c r="I4">
+        <v>-0.03123300215262194</v>
+      </c>
+      <c r="J4">
+        <v>-0.008737787005163561</v>
+      </c>
+      <c r="K4">
+        <v>0.03859802386303728</v>
+      </c>
+      <c r="L4">
+        <v>0.08235612878476349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +890,443 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.1283046127965169</v>
+        <v>-0.1302469539307265</v>
       </c>
       <c r="C6">
-        <v>-0.03061508729689092</v>
+        <v>-0.04073581199350584</v>
       </c>
       <c r="D6">
-        <v>-0.03393061101229377</v>
+        <v>0.0003458837702380528</v>
       </c>
       <c r="E6">
-        <v>0.02385036595175951</v>
+        <v>0.002892135957357897</v>
       </c>
       <c r="F6">
-        <v>-0.1543319127339219</v>
+        <v>-0.008865740090841807</v>
       </c>
       <c r="G6">
-        <v>-0.1350242776636038</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.07319904906190498</v>
+      </c>
+      <c r="H6">
+        <v>-0.08655447213966855</v>
+      </c>
+      <c r="I6">
+        <v>-0.3065803991261844</v>
+      </c>
+      <c r="J6">
+        <v>-0.2685200634468111</v>
+      </c>
+      <c r="K6">
+        <v>-0.2175264125480259</v>
+      </c>
+      <c r="L6">
+        <v>0.1299721382233562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.0854536260786143</v>
+        <v>-0.0813228386127515</v>
       </c>
       <c r="C7">
-        <v>-0.0451951834060023</v>
+        <v>-0.06570150001899139</v>
       </c>
       <c r="D7">
-        <v>-0.04593492727610807</v>
+        <v>-0.03279498753158057</v>
       </c>
       <c r="E7">
-        <v>0.03308793112949305</v>
+        <v>0.01701923012366011</v>
       </c>
       <c r="F7">
-        <v>-0.02513488890565737</v>
+        <v>0.03450399922796641</v>
       </c>
       <c r="G7">
-        <v>0.04152880258209347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.004388286717468218</v>
+      </c>
+      <c r="H7">
+        <v>0.02205336578408345</v>
+      </c>
+      <c r="I7">
+        <v>-0.003006584491494406</v>
+      </c>
+      <c r="J7">
+        <v>0.02544105095947865</v>
+      </c>
+      <c r="K7">
+        <v>0.1156579412308864</v>
+      </c>
+      <c r="L7">
+        <v>0.04591138106605355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.04797865915755592</v>
+        <v>-0.04947541228924114</v>
       </c>
       <c r="C8">
-        <v>0.0002276548778090059</v>
+        <v>-0.01952580301803213</v>
       </c>
       <c r="D8">
-        <v>-0.07589646261654488</v>
+        <v>-0.006573109507435141</v>
       </c>
       <c r="E8">
-        <v>0.06714691506343713</v>
+        <v>0.01625113370248283</v>
       </c>
       <c r="F8">
-        <v>0.05359447409948291</v>
+        <v>0.1433969865405333</v>
       </c>
       <c r="G8">
-        <v>0.1155731421930224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.00636273165766915</v>
+      </c>
+      <c r="H8">
+        <v>-0.06180542790495654</v>
+      </c>
+      <c r="I8">
+        <v>-0.04610897387076214</v>
+      </c>
+      <c r="J8">
+        <v>0.0236322167767713</v>
+      </c>
+      <c r="K8">
+        <v>0.02806409585066761</v>
+      </c>
+      <c r="L8">
+        <v>0.1234369715562039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.08741921375057671</v>
+        <v>-0.08579331318887264</v>
       </c>
       <c r="C9">
-        <v>-0.04190424055096768</v>
+        <v>-0.05646327917330411</v>
       </c>
       <c r="D9">
-        <v>-0.03915122822455475</v>
+        <v>-0.02241141861676199</v>
       </c>
       <c r="E9">
-        <v>0.03448536783006549</v>
+        <v>-0.001661132915917344</v>
       </c>
       <c r="F9">
-        <v>0.02499693824952392</v>
+        <v>0.1415928695076506</v>
       </c>
       <c r="G9">
-        <v>0.05825432519273317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.01202762362152771</v>
+      </c>
+      <c r="H9">
+        <v>-0.00368601766744051</v>
+      </c>
+      <c r="I9">
+        <v>-0.02984095205714054</v>
+      </c>
+      <c r="J9">
+        <v>0.01265823151372323</v>
+      </c>
+      <c r="K9">
+        <v>0.01349766411329802</v>
+      </c>
+      <c r="L9">
+        <v>0.05825545429584649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.04429035737488808</v>
+        <v>-0.1022956637285265</v>
       </c>
       <c r="C10">
-        <v>0.1529001069426418</v>
+        <v>0.1628458338586448</v>
       </c>
       <c r="D10">
-        <v>-0.0933762955133476</v>
+        <v>-0.05885531305115418</v>
       </c>
       <c r="E10">
-        <v>0.04150576765608446</v>
+        <v>0.02958515046473616</v>
       </c>
       <c r="F10">
-        <v>-0.03889198363977874</v>
+        <v>-0.01094708440717013</v>
       </c>
       <c r="G10">
-        <v>0.03515029649986039</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01044816911999402</v>
+      </c>
+      <c r="H10">
+        <v>0.04888017129642599</v>
+      </c>
+      <c r="I10">
+        <v>-0.0134155700567911</v>
+      </c>
+      <c r="J10">
+        <v>-0.04457088205050115</v>
+      </c>
+      <c r="K10">
+        <v>0.04679600595937575</v>
+      </c>
+      <c r="L10">
+        <v>-0.03771207444826362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.07256963370858326</v>
+        <v>-0.07651517888323749</v>
       </c>
       <c r="C11">
-        <v>-0.05907415568438449</v>
+        <v>-0.06930194193758588</v>
       </c>
       <c r="D11">
-        <v>-0.003789738495651754</v>
+        <v>-0.006571211403178072</v>
       </c>
       <c r="E11">
-        <v>-0.001447336261791803</v>
+        <v>-0.02484244281574879</v>
       </c>
       <c r="F11">
-        <v>0.02580829063780301</v>
+        <v>0.1325122971266919</v>
       </c>
       <c r="G11">
-        <v>0.1477046025493666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.01322775531123144</v>
+      </c>
+      <c r="H11">
+        <v>0.05469788207132267</v>
+      </c>
+      <c r="I11">
+        <v>0.03385882219227969</v>
+      </c>
+      <c r="J11">
+        <v>0.08495679025128805</v>
+      </c>
+      <c r="K11">
+        <v>-0.03852249591162964</v>
+      </c>
+      <c r="L11">
+        <v>-0.0182436985531613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.06753099106197137</v>
+        <v>-0.06975438582187894</v>
       </c>
       <c r="C12">
-        <v>-0.03488047420069759</v>
+        <v>-0.06063236354796702</v>
       </c>
       <c r="D12">
-        <v>0.002898243279634924</v>
+        <v>-0.01105092539353241</v>
       </c>
       <c r="E12">
-        <v>0.04354006575664229</v>
+        <v>-0.02488351922405231</v>
       </c>
       <c r="F12">
-        <v>0.01781198955149755</v>
+        <v>0.1397537504765203</v>
       </c>
       <c r="G12">
-        <v>0.1458722945528484</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.0220802154761123</v>
+      </c>
+      <c r="H12">
+        <v>0.03973709871125562</v>
+      </c>
+      <c r="I12">
+        <v>-0.008713317372483509</v>
+      </c>
+      <c r="J12">
+        <v>0.1071663840833293</v>
+      </c>
+      <c r="K12">
+        <v>-0.04891344448532121</v>
+      </c>
+      <c r="L12">
+        <v>0.01677817951523169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.06338072181476624</v>
+        <v>-0.04144784683644284</v>
       </c>
       <c r="C13">
-        <v>-0.01018492099757476</v>
+        <v>-0.02747149057154176</v>
       </c>
       <c r="D13">
-        <v>-0.01430632029950633</v>
+        <v>-0.008881810615246573</v>
       </c>
       <c r="E13">
-        <v>0.03828014600754506</v>
+        <v>0.02244626232830675</v>
       </c>
       <c r="F13">
-        <v>0.0589365166430891</v>
+        <v>0.0481902295105433</v>
       </c>
       <c r="G13">
-        <v>0.04737153761108354</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.009125764491176159</v>
+      </c>
+      <c r="H13">
+        <v>-0.01549220519284059</v>
+      </c>
+      <c r="I13">
+        <v>-0.03177918582404247</v>
+      </c>
+      <c r="J13">
+        <v>0.001445007786535407</v>
+      </c>
+      <c r="K13">
+        <v>0.04409585931478702</v>
+      </c>
+      <c r="L13">
+        <v>-0.0001849841720509342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>0.05183144038115894</v>
+        <v>-0.04254934704744198</v>
       </c>
       <c r="C14">
-        <v>-0.009201540114320388</v>
+        <v>-0.02828876962108334</v>
       </c>
       <c r="D14">
-        <v>-0.03055635471640643</v>
+        <v>-0.014945508454377</v>
       </c>
       <c r="E14">
-        <v>0.01810724765262553</v>
+        <v>-0.01287033622898962</v>
       </c>
       <c r="F14">
-        <v>-0.0001656627500329868</v>
+        <v>0.0656563714276327</v>
       </c>
       <c r="G14">
-        <v>0.04213805707743686</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.005613702619553745</v>
+      </c>
+      <c r="H14">
+        <v>-0.02264619824626742</v>
+      </c>
+      <c r="I14">
+        <v>0.0007494350061146221</v>
+      </c>
+      <c r="J14">
+        <v>-0.03305926144662902</v>
+      </c>
+      <c r="K14">
+        <v>0.05982898640018561</v>
+      </c>
+      <c r="L14">
+        <v>0.1002239710418245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.03704264991364648</v>
+        <v>-0.02358375746795089</v>
       </c>
       <c r="C15">
-        <v>0.009648159530757256</v>
+        <v>-0.01236058607492693</v>
       </c>
       <c r="D15">
-        <v>-0.01306302216940246</v>
+        <v>0.004780926840585949</v>
       </c>
       <c r="E15">
-        <v>0.01206655866301052</v>
+        <v>0.0480468443005537</v>
       </c>
       <c r="F15">
-        <v>0.0168585322574986</v>
+        <v>0.007864667410144022</v>
       </c>
       <c r="G15">
-        <v>0.01396355470444209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.03427664627275231</v>
+      </c>
+      <c r="H15">
+        <v>0.004198743126532116</v>
+      </c>
+      <c r="I15">
+        <v>-0.0141199062555189</v>
+      </c>
+      <c r="J15">
+        <v>-0.05490365229088279</v>
+      </c>
+      <c r="K15">
+        <v>0.05773828807877355</v>
+      </c>
+      <c r="L15">
+        <v>0.02466237814657029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.07460050618482003</v>
+        <v>-0.0796871133006315</v>
       </c>
       <c r="C16">
-        <v>-0.06977608718146378</v>
+        <v>-0.07219417815635464</v>
       </c>
       <c r="D16">
-        <v>-0.01621315642710075</v>
+        <v>-0.00233844095198761</v>
       </c>
       <c r="E16">
-        <v>0.0421575889870018</v>
+        <v>-0.0178717277232677</v>
       </c>
       <c r="F16">
-        <v>0.05237835199871008</v>
+        <v>0.1282164433282669</v>
       </c>
       <c r="G16">
-        <v>0.1156924448822674</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02143636955473221</v>
+      </c>
+      <c r="H16">
+        <v>0.0420586207695037</v>
+      </c>
+      <c r="I16">
+        <v>0.03016877819689974</v>
+      </c>
+      <c r="J16">
+        <v>0.1032424924802589</v>
+      </c>
+      <c r="K16">
+        <v>-0.03429872273874281</v>
+      </c>
+      <c r="L16">
+        <v>0.01733132390268204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1346,25 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1384,25 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1422,291 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>0.05381216381710624</v>
+        <v>-0.04623882289810139</v>
       </c>
       <c r="C20">
-        <v>-0.02562483998473614</v>
+        <v>-0.03536631343774213</v>
       </c>
       <c r="D20">
-        <v>-0.01140739889287151</v>
+        <v>-0.0141006823069338</v>
       </c>
       <c r="E20">
-        <v>0.02509262075174324</v>
+        <v>0.02285670350907429</v>
       </c>
       <c r="F20">
-        <v>0.02237490004219963</v>
+        <v>0.06402841518623741</v>
       </c>
       <c r="G20">
-        <v>0.08096938504631308</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01174973302537307</v>
+      </c>
+      <c r="H20">
+        <v>-0.0001056775693806188</v>
+      </c>
+      <c r="I20">
+        <v>-0.03373886335876337</v>
+      </c>
+      <c r="J20">
+        <v>0.00217437955722839</v>
+      </c>
+      <c r="K20">
+        <v>0.05280130470813486</v>
+      </c>
+      <c r="L20">
+        <v>0.05244462105831572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.02326870240749766</v>
+        <v>-0.02271380540523369</v>
       </c>
       <c r="C21">
-        <v>-0.04147938736602086</v>
+        <v>-0.0192130235546415</v>
       </c>
       <c r="D21">
-        <v>0.006256782085721162</v>
+        <v>-0.002430396319897128</v>
       </c>
       <c r="E21">
-        <v>0.02253683046396444</v>
+        <v>0.002453653907889228</v>
       </c>
       <c r="F21">
-        <v>-0.098490055560177</v>
+        <v>0.06279397269452872</v>
       </c>
       <c r="G21">
-        <v>-0.03416822350271537</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04127803639536164</v>
+      </c>
+      <c r="H21">
+        <v>0.08803899719346284</v>
+      </c>
+      <c r="I21">
+        <v>-0.07783729039200563</v>
+      </c>
+      <c r="J21">
+        <v>-0.04750371769737314</v>
+      </c>
+      <c r="K21">
+        <v>0.1304112796529014</v>
+      </c>
+      <c r="L21">
+        <v>0.004166244849730859</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>0.03597622117535951</v>
+        <v>-0.05026228657166378</v>
       </c>
       <c r="C22">
-        <v>-0.02359551251206047</v>
+        <v>-0.01915263824731912</v>
       </c>
       <c r="D22">
-        <v>0.02487757190905551</v>
+        <v>0.09126072396324368</v>
       </c>
       <c r="E22">
-        <v>0.5348260790174048</v>
+        <v>0.6534892432377793</v>
       </c>
       <c r="F22">
-        <v>0.1656092741349556</v>
+        <v>-0.06041670226340202</v>
       </c>
       <c r="G22">
-        <v>-0.2980105261640367</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.1359595642042759</v>
+      </c>
+      <c r="H22">
+        <v>0.06176051134906617</v>
+      </c>
+      <c r="I22">
+        <v>-0.01045061275753334</v>
+      </c>
+      <c r="J22">
+        <v>0.05839172957585607</v>
+      </c>
+      <c r="K22">
+        <v>-0.0430194650974346</v>
+      </c>
+      <c r="L22">
+        <v>-0.02049224346445607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0.03599961211430484</v>
+        <v>-0.05069122502740081</v>
       </c>
       <c r="C23">
-        <v>-0.02409389931021097</v>
+        <v>-0.01976517336727227</v>
       </c>
       <c r="D23">
-        <v>0.02370082702420868</v>
+        <v>0.09157338836838853</v>
       </c>
       <c r="E23">
-        <v>0.5342638363246506</v>
+        <v>0.6552630643603257</v>
       </c>
       <c r="F23">
-        <v>0.1663541078383612</v>
+        <v>-0.05781858377306467</v>
       </c>
       <c r="G23">
-        <v>-0.2999581783162162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.1365700865172008</v>
+      </c>
+      <c r="H23">
+        <v>0.0584175099807161</v>
+      </c>
+      <c r="I23">
+        <v>-0.01124560998316222</v>
+      </c>
+      <c r="J23">
+        <v>0.0571642502709617</v>
+      </c>
+      <c r="K23">
+        <v>-0.04650700680136153</v>
+      </c>
+      <c r="L23">
+        <v>-0.02050131137216721</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>0.08434329153849439</v>
+        <v>-0.08389939131071339</v>
       </c>
       <c r="C24">
-        <v>-0.04846940230862383</v>
+        <v>-0.06423765453800724</v>
       </c>
       <c r="D24">
-        <v>-0.01642417952393539</v>
+        <v>-0.00925086449357586</v>
       </c>
       <c r="E24">
-        <v>0.04015350210249525</v>
+        <v>-0.01444118776576359</v>
       </c>
       <c r="F24">
-        <v>0.02324820724111052</v>
+        <v>0.1251865375462047</v>
       </c>
       <c r="G24">
-        <v>0.1167694196606202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02269729239043528</v>
+      </c>
+      <c r="H24">
+        <v>0.06140894769178849</v>
+      </c>
+      <c r="I24">
+        <v>0.04087648823273235</v>
+      </c>
+      <c r="J24">
+        <v>0.09036039592397925</v>
+      </c>
+      <c r="K24">
+        <v>-0.05854039531470866</v>
+      </c>
+      <c r="L24">
+        <v>-0.006628277105784535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>0.07462266739654212</v>
+        <v>-0.0814922088371383</v>
       </c>
       <c r="C25">
-        <v>-0.01913942844360621</v>
+        <v>-0.04872381284857236</v>
       </c>
       <c r="D25">
-        <v>-0.02357460121022879</v>
+        <v>-0.01940140943421247</v>
       </c>
       <c r="E25">
-        <v>0.03363548292107248</v>
+        <v>-0.02618504518310794</v>
       </c>
       <c r="F25">
-        <v>0.01344734227906635</v>
+        <v>0.1280859864480458</v>
       </c>
       <c r="G25">
-        <v>0.1109279989044835</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02799567199421835</v>
+      </c>
+      <c r="H25">
+        <v>0.03807602234852867</v>
+      </c>
+      <c r="I25">
+        <v>0.02668162524661317</v>
+      </c>
+      <c r="J25">
+        <v>0.08839679583630793</v>
+      </c>
+      <c r="K25">
+        <v>-0.05781732483959787</v>
+      </c>
+      <c r="L25">
+        <v>0.0206467421006077</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0.04910486211956287</v>
+        <v>-0.04464669382239877</v>
       </c>
       <c r="C26">
-        <v>-0.02973714808837074</v>
+        <v>-0.01271266946465443</v>
       </c>
       <c r="D26">
-        <v>-0.0274815615062976</v>
+        <v>-0.0001245513224910596</v>
       </c>
       <c r="E26">
-        <v>0.003119023799787251</v>
+        <v>0.009398579534111298</v>
       </c>
       <c r="F26">
-        <v>0.01979152424060963</v>
+        <v>0.05338436071970213</v>
       </c>
       <c r="G26">
-        <v>0.05222061803161551</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03314681260793421</v>
+      </c>
+      <c r="H26">
+        <v>0.01033316691578473</v>
+      </c>
+      <c r="I26">
+        <v>0.003134321912711582</v>
+      </c>
+      <c r="J26">
+        <v>-0.04326876996169617</v>
+      </c>
+      <c r="K26">
+        <v>0.09525590098253879</v>
+      </c>
+      <c r="L26">
+        <v>0.03582199582097519</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1726,367 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.07640741971785864</v>
+        <v>-0.1249245720982812</v>
       </c>
       <c r="C28">
-        <v>0.288238378812761</v>
+        <v>0.2985362593999022</v>
       </c>
       <c r="D28">
-        <v>-0.07274249770192483</v>
+        <v>0.004984478669038173</v>
       </c>
       <c r="E28">
-        <v>-0.02413869196086192</v>
+        <v>-0.008090886534737649</v>
       </c>
       <c r="F28">
-        <v>-0.04852573798123515</v>
+        <v>0.01674401553565161</v>
       </c>
       <c r="G28">
-        <v>-0.02203349607521871</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.003077342687789851</v>
+      </c>
+      <c r="H28">
+        <v>0.01154560570413801</v>
+      </c>
+      <c r="I28">
+        <v>-0.02527640448625126</v>
+      </c>
+      <c r="J28">
+        <v>0.01245519794665144</v>
+      </c>
+      <c r="K28">
+        <v>0.004649887574162916</v>
+      </c>
+      <c r="L28">
+        <v>-0.0259227225367762</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>0.05502398916454861</v>
+        <v>-0.04267767301570682</v>
       </c>
       <c r="C29">
-        <v>-0.007264074926012486</v>
+        <v>-0.02691681559285321</v>
       </c>
       <c r="D29">
-        <v>-0.01935427831241978</v>
+        <v>-0.02667311191079477</v>
       </c>
       <c r="E29">
-        <v>0.0384697122978261</v>
+        <v>-0.0002511012171084546</v>
       </c>
       <c r="F29">
-        <v>0.03129349989750422</v>
+        <v>0.06579167849313072</v>
       </c>
       <c r="G29">
-        <v>0.01480003430559615</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03270084013848919</v>
+      </c>
+      <c r="H29">
+        <v>-0.007561799828574762</v>
+      </c>
+      <c r="I29">
+        <v>-0.009613791512928262</v>
+      </c>
+      <c r="J29">
+        <v>-0.03418154301483698</v>
+      </c>
+      <c r="K29">
+        <v>0.06305357979795001</v>
+      </c>
+      <c r="L29">
+        <v>0.0760683427610369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>0.1237726236151928</v>
+        <v>-0.1069012569515616</v>
       </c>
       <c r="C30">
-        <v>-0.02995548379093781</v>
+        <v>-0.05364024840217198</v>
       </c>
       <c r="D30">
-        <v>-0.06679491612575965</v>
+        <v>0.0247414577246357</v>
       </c>
       <c r="E30">
-        <v>0.1086405899634481</v>
+        <v>-0.01793959121668671</v>
       </c>
       <c r="F30">
-        <v>-0.0248987141893498</v>
+        <v>0.1997120528634957</v>
       </c>
       <c r="G30">
-        <v>0.1481212616887723</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.1143184437650797</v>
+      </c>
+      <c r="H30">
+        <v>0.111614717715152</v>
+      </c>
+      <c r="I30">
+        <v>-0.2006270472692415</v>
+      </c>
+      <c r="J30">
+        <v>0.1794661305650004</v>
+      </c>
+      <c r="K30">
+        <v>-0.07012643652072437</v>
+      </c>
+      <c r="L30">
+        <v>0.068174694815544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0.05548365227572725</v>
+        <v>-0.04051538197713096</v>
       </c>
       <c r="C31">
-        <v>-0.01573228888056679</v>
+        <v>-0.04056035731253816</v>
       </c>
       <c r="D31">
-        <v>0.005829663905689769</v>
+        <v>-0.004686686610127938</v>
       </c>
       <c r="E31">
-        <v>0.01403522704895443</v>
+        <v>0.005163003849851044</v>
       </c>
       <c r="F31">
-        <v>0.0238446690991385</v>
+        <v>0.02531050977285717</v>
       </c>
       <c r="G31">
-        <v>-0.0005104379986279264</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01508293835608572</v>
+      </c>
+      <c r="H31">
+        <v>-0.03364591061989448</v>
+      </c>
+      <c r="I31">
+        <v>0.02378077140106915</v>
+      </c>
+      <c r="J31">
+        <v>-0.00731304215099108</v>
+      </c>
+      <c r="K31">
+        <v>0.005914933210389845</v>
+      </c>
+      <c r="L31">
+        <v>0.04528012137241012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.03132421141774035</v>
+        <v>-0.04953838321265029</v>
       </c>
       <c r="C32">
-        <v>0.02468925865848902</v>
+        <v>-0.002954411808585899</v>
       </c>
       <c r="D32">
-        <v>-0.005268604083201875</v>
+        <v>0.02858149698833126</v>
       </c>
       <c r="E32">
-        <v>0.07917547927080132</v>
+        <v>-0.02425650960594077</v>
       </c>
       <c r="F32">
-        <v>0.08762677766126119</v>
+        <v>0.07338418142101796</v>
       </c>
       <c r="G32">
-        <v>0.06517769692941315</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.0106482655781293</v>
+      </c>
+      <c r="H32">
+        <v>0.002827577033027162</v>
+      </c>
+      <c r="I32">
+        <v>0.02312761726366892</v>
+      </c>
+      <c r="J32">
+        <v>-0.009149665235723244</v>
+      </c>
+      <c r="K32">
+        <v>0.06327161550878385</v>
+      </c>
+      <c r="L32">
+        <v>0.05938403589953032</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>0.1097192586200492</v>
+        <v>-0.09935803322995405</v>
       </c>
       <c r="C33">
-        <v>-0.02258689933117866</v>
+        <v>-0.0557083821154831</v>
       </c>
       <c r="D33">
-        <v>0.01071083156196419</v>
+        <v>-0.000428745190621695</v>
       </c>
       <c r="E33">
-        <v>-0.004491833437073258</v>
+        <v>-0.02595244958644875</v>
       </c>
       <c r="F33">
-        <v>0.05587402814323607</v>
+        <v>0.08188250485258354</v>
       </c>
       <c r="G33">
-        <v>0.03107971233949728</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.008612812195662846</v>
+      </c>
+      <c r="H33">
+        <v>0.005894378341591598</v>
+      </c>
+      <c r="I33">
+        <v>0.005002359137215561</v>
+      </c>
+      <c r="J33">
+        <v>-0.005512901402382454</v>
+      </c>
+      <c r="K33">
+        <v>0.0005460540736850013</v>
+      </c>
+      <c r="L33">
+        <v>0.03390091565321085</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>0.06166987197366192</v>
+        <v>-0.06743498657501891</v>
       </c>
       <c r="C34">
-        <v>-0.04674933974003113</v>
+        <v>-0.05327716263787567</v>
       </c>
       <c r="D34">
-        <v>-0.004953477530170069</v>
+        <v>-0.00832023128573328</v>
       </c>
       <c r="E34">
-        <v>0.02299203208115765</v>
+        <v>-0.02367614631760933</v>
       </c>
       <c r="F34">
-        <v>0.02256916338764139</v>
+        <v>0.1167624770341804</v>
       </c>
       <c r="G34">
-        <v>0.09330358028396631</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01583833732191121</v>
+      </c>
+      <c r="H34">
+        <v>0.0325993935008346</v>
+      </c>
+      <c r="I34">
+        <v>0.02826690864261542</v>
+      </c>
+      <c r="J34">
+        <v>0.07777913147708658</v>
+      </c>
+      <c r="K34">
+        <v>0.004010863270409423</v>
+      </c>
+      <c r="L34">
+        <v>0.03522081015082097</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>0.04505925867092775</v>
+        <v>-0.0222508445568728</v>
       </c>
       <c r="C35">
-        <v>-0.01601927687902741</v>
+        <v>-0.02111442451965318</v>
       </c>
       <c r="D35">
-        <v>0.01413949943818971</v>
+        <v>-0.003888216990932281</v>
       </c>
       <c r="E35">
-        <v>0.01071163638770049</v>
+        <v>-0.006287442476479526</v>
       </c>
       <c r="F35">
-        <v>-0.0255730765634446</v>
+        <v>0.03527758182165363</v>
       </c>
       <c r="G35">
-        <v>0.06275380527324005</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.01962133398720642</v>
+      </c>
+      <c r="H35">
+        <v>0.0154877393090435</v>
+      </c>
+      <c r="I35">
+        <v>-0.02477551212646833</v>
+      </c>
+      <c r="J35">
+        <v>0.03754037536983394</v>
+      </c>
+      <c r="K35">
+        <v>0.05436455250230589</v>
+      </c>
+      <c r="L35">
+        <v>0.04634384456045863</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>0.03591743398140881</v>
+        <v>-0.02764620850595846</v>
       </c>
       <c r="C36">
-        <v>-0.005636504009963205</v>
+        <v>-0.01353535005980556</v>
       </c>
       <c r="D36">
-        <v>-0.02320204389529298</v>
+        <v>-0.001536370221064567</v>
       </c>
       <c r="E36">
-        <v>0.03041909923839303</v>
+        <v>0.01115723473944975</v>
       </c>
       <c r="F36">
-        <v>0.01181315256908531</v>
+        <v>0.06908981659950542</v>
       </c>
       <c r="G36">
-        <v>0.05050792539430281</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.0179354147376734</v>
+      </c>
+      <c r="H36">
+        <v>0.009669108750800567</v>
+      </c>
+      <c r="I36">
+        <v>-0.01735509851883566</v>
+      </c>
+      <c r="J36">
+        <v>-0.02650091709679047</v>
+      </c>
+      <c r="K36">
+        <v>0.005323889867107631</v>
+      </c>
+      <c r="L36">
+        <v>0.03082965432293004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +2106,177 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>0.04975303796841137</v>
+        <v>-0.02429297945860482</v>
       </c>
       <c r="C38">
-        <v>-0.01407302223214352</v>
+        <v>-0.03114329008457853</v>
       </c>
       <c r="D38">
-        <v>0.001642143917623877</v>
+        <v>-0.008983429557478037</v>
       </c>
       <c r="E38">
-        <v>0.02167785866939203</v>
+        <v>0.01888410056758383</v>
       </c>
       <c r="F38">
-        <v>0.005565108849352271</v>
+        <v>-0.0479529575745572</v>
       </c>
       <c r="G38">
-        <v>0.0460621215687331</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02877105091258868</v>
+      </c>
+      <c r="H38">
+        <v>-0.00105894564409729</v>
+      </c>
+      <c r="I38">
+        <v>-0.02810331847756165</v>
+      </c>
+      <c r="J38">
+        <v>0.004249009655480246</v>
+      </c>
+      <c r="K38">
+        <v>0.07269114866524491</v>
+      </c>
+      <c r="L38">
+        <v>-0.0393216115642963</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>0.1078729510633006</v>
+        <v>-0.1098352682431538</v>
       </c>
       <c r="C39">
-        <v>-0.05608975450214231</v>
+        <v>-0.08131927642153262</v>
       </c>
       <c r="D39">
-        <v>0.0001555054455747753</v>
+        <v>-0.007174281261327696</v>
       </c>
       <c r="E39">
-        <v>0.04841061594060118</v>
+        <v>-0.09113924319590339</v>
       </c>
       <c r="F39">
-        <v>0.03114747083673488</v>
+        <v>0.1533596194930703</v>
       </c>
       <c r="G39">
-        <v>0.1709750470060931</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.1037749244384602</v>
+      </c>
+      <c r="H39">
+        <v>0.04877164052404248</v>
+      </c>
+      <c r="I39">
+        <v>0.00235877507960742</v>
+      </c>
+      <c r="J39">
+        <v>0.2237522473735769</v>
+      </c>
+      <c r="K39">
+        <v>-0.08591419372864249</v>
+      </c>
+      <c r="L39">
+        <v>-0.01848808467592785</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>0.05430719623718067</v>
+        <v>-0.03351503944632984</v>
       </c>
       <c r="C40">
-        <v>-0.0220083071724183</v>
+        <v>-0.05535919085748632</v>
       </c>
       <c r="D40">
-        <v>0.02815605755769884</v>
+        <v>-0.006545617032006656</v>
       </c>
       <c r="E40">
-        <v>0.1030773221052543</v>
+        <v>0.03750678359237286</v>
       </c>
       <c r="F40">
-        <v>0.03484215199304434</v>
+        <v>0.1011525513122059</v>
       </c>
       <c r="G40">
-        <v>0.189949158015329</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.004357885960446991</v>
+      </c>
+      <c r="H40">
+        <v>0.0864375859147653</v>
+      </c>
+      <c r="I40">
+        <v>-0.03748691575210774</v>
+      </c>
+      <c r="J40">
+        <v>-0.03202081551594049</v>
+      </c>
+      <c r="K40">
+        <v>0.08195192503426621</v>
+      </c>
+      <c r="L40">
+        <v>-0.07952998760902986</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>0.05015475172048234</v>
+        <v>-0.0358265298076414</v>
       </c>
       <c r="C41">
-        <v>-0.03265961769548058</v>
+        <v>-0.03052642267938018</v>
       </c>
       <c r="D41">
-        <v>-0.004162491655928176</v>
+        <v>-0.01621001633992559</v>
       </c>
       <c r="E41">
-        <v>0.001531972141628423</v>
+        <v>-0.0165507571866601</v>
       </c>
       <c r="F41">
-        <v>0.02987304850588136</v>
+        <v>0.02003397963383571</v>
       </c>
       <c r="G41">
-        <v>0.07683364272105378</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.01930592736760176</v>
+      </c>
+      <c r="H41">
+        <v>-0.01232742546721758</v>
+      </c>
+      <c r="I41">
+        <v>-0.005882811603993056</v>
+      </c>
+      <c r="J41">
+        <v>0.02587326759679982</v>
+      </c>
+      <c r="K41">
+        <v>0.04724919299860165</v>
+      </c>
+      <c r="L41">
+        <v>0.02222829805236973</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2296,101 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>0.0719791694036437</v>
+        <v>-0.05101117034020906</v>
       </c>
       <c r="C43">
-        <v>-0.02994692490111448</v>
+        <v>-0.03258270013718215</v>
       </c>
       <c r="D43">
-        <v>-0.02637805810529266</v>
+        <v>-0.01126999419309392</v>
       </c>
       <c r="E43">
-        <v>0.03059182259484595</v>
+        <v>0.01353972338598885</v>
       </c>
       <c r="F43">
-        <v>0.01491293871858701</v>
+        <v>0.01397993455726192</v>
       </c>
       <c r="G43">
-        <v>0.03736012799723325</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.04400043813600733</v>
+      </c>
+      <c r="H43">
+        <v>-0.03315851727711453</v>
+      </c>
+      <c r="I43">
+        <v>-0.02132568877699928</v>
+      </c>
+      <c r="J43">
+        <v>0.05029357082123816</v>
+      </c>
+      <c r="K43">
+        <v>0.02101998731397619</v>
+      </c>
+      <c r="L43">
+        <v>0.03364966071997695</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>0.06112987546741811</v>
+        <v>-0.1110954485636331</v>
       </c>
       <c r="C44">
-        <v>-0.02753854644063669</v>
+        <v>-0.09137810340552391</v>
       </c>
       <c r="D44">
-        <v>-0.1002090800795908</v>
+        <v>-0.05502956531442954</v>
       </c>
       <c r="E44">
-        <v>0.06759481363762124</v>
+        <v>0.09721180832285897</v>
       </c>
       <c r="F44">
-        <v>0.03840129193738193</v>
+        <v>0.2121935031922306</v>
       </c>
       <c r="G44">
-        <v>0.1434254553893286</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.02640410388658174</v>
+      </c>
+      <c r="H44">
+        <v>0.1283520773250805</v>
+      </c>
+      <c r="I44">
+        <v>-0.01251423976694127</v>
+      </c>
+      <c r="J44">
+        <v>-0.1408665687537342</v>
+      </c>
+      <c r="K44">
+        <v>0.1555920847134238</v>
+      </c>
+      <c r="L44">
+        <v>-0.0854595328177386</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2410,443 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>0.04442506814739257</v>
+        <v>-0.03331444512695729</v>
       </c>
       <c r="C46">
-        <v>-0.04214460080698541</v>
+        <v>-0.0275206844388859</v>
       </c>
       <c r="D46">
-        <v>-0.01960057540612468</v>
+        <v>-0.02606106589549212</v>
       </c>
       <c r="E46">
-        <v>0.05514689963059009</v>
+        <v>0.04055972242357916</v>
       </c>
       <c r="F46">
-        <v>0.0234995387917033</v>
+        <v>0.03624509270854204</v>
       </c>
       <c r="G46">
-        <v>0.04143556223654823</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01626431109667925</v>
+      </c>
+      <c r="H46">
+        <v>0.03683771420406638</v>
+      </c>
+      <c r="I46">
+        <v>0.005733259648470206</v>
+      </c>
+      <c r="J46">
+        <v>-0.02720956977010593</v>
+      </c>
+      <c r="K46">
+        <v>0.06943314141092946</v>
+      </c>
+      <c r="L46">
+        <v>0.109788320879097</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>0.04864305943192782</v>
+        <v>-0.0428403943833025</v>
       </c>
       <c r="C47">
-        <v>-0.00854695234167451</v>
+        <v>-0.023787049879633</v>
       </c>
       <c r="D47">
-        <v>-0.01149078931208505</v>
+        <v>-0.006339515600505802</v>
       </c>
       <c r="E47">
-        <v>0.07545036053552655</v>
+        <v>0.01973081825033429</v>
       </c>
       <c r="F47">
-        <v>0.008626421976437025</v>
+        <v>0.03600533308988709</v>
       </c>
       <c r="G47">
-        <v>-0.006854877955927556</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.001856751957096411</v>
+      </c>
+      <c r="H47">
+        <v>-0.012770550547495</v>
+      </c>
+      <c r="I47">
+        <v>-0.02719669691615562</v>
+      </c>
+      <c r="J47">
+        <v>-0.02595990010736993</v>
+      </c>
+      <c r="K47">
+        <v>0.05167648959732272</v>
+      </c>
+      <c r="L47">
+        <v>0.04045320531807994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>0.04484830284292921</v>
+        <v>-0.04378955992727242</v>
       </c>
       <c r="C48">
-        <v>-0.001879351602853697</v>
+        <v>-0.01428436575496883</v>
       </c>
       <c r="D48">
-        <v>0.004375566333638805</v>
+        <v>-0.008602024787118556</v>
       </c>
       <c r="E48">
-        <v>0.03989587028215887</v>
+        <v>0.003628738664624584</v>
       </c>
       <c r="F48">
-        <v>0.01886695483832094</v>
+        <v>0.06736265892968203</v>
       </c>
       <c r="G48">
-        <v>0.02535738319341542</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.002312286595409973</v>
+      </c>
+      <c r="H48">
+        <v>0.03971312095894155</v>
+      </c>
+      <c r="I48">
+        <v>-0.01053325408121323</v>
+      </c>
+      <c r="J48">
+        <v>-0.005325723126231886</v>
+      </c>
+      <c r="K48">
+        <v>0.01160022963159964</v>
+      </c>
+      <c r="L48">
+        <v>0.05620032128457973</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0.2382335173187767</v>
+        <v>-0.2266784705045893</v>
       </c>
       <c r="C49">
-        <v>-0.1108369455422918</v>
+        <v>-0.05167826497834959</v>
       </c>
       <c r="D49">
-        <v>-0.0394209629232908</v>
+        <v>-0.08715109982724834</v>
       </c>
       <c r="E49">
-        <v>-0.06610525749922136</v>
+        <v>-0.03800802909961504</v>
       </c>
       <c r="F49">
-        <v>-0.1739891752629288</v>
+        <v>-0.248660092600531</v>
       </c>
       <c r="G49">
-        <v>-0.07302002790735775</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.08112772922317725</v>
+      </c>
+      <c r="H49">
+        <v>0.1836637867686218</v>
+      </c>
+      <c r="I49">
+        <v>0.01704990449034236</v>
+      </c>
+      <c r="J49">
+        <v>0.1220792741905182</v>
+      </c>
+      <c r="K49">
+        <v>-0.138844211834345</v>
+      </c>
+      <c r="L49">
+        <v>-0.03911287592841133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>0.05322405598412334</v>
+        <v>-0.04607794399222341</v>
       </c>
       <c r="C50">
-        <v>-0.01567750518091334</v>
+        <v>-0.02905245703309448</v>
       </c>
       <c r="D50">
-        <v>0.009233118093246312</v>
+        <v>-0.001377311732201528</v>
       </c>
       <c r="E50">
-        <v>0.02166808711963831</v>
+        <v>-0.001441407068233601</v>
       </c>
       <c r="F50">
-        <v>0.04396341558234213</v>
+        <v>0.04652988854506358</v>
       </c>
       <c r="G50">
-        <v>-0.01536755527974607</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.03484886487357679</v>
+      </c>
+      <c r="H50">
+        <v>-0.02490385651119896</v>
+      </c>
+      <c r="I50">
+        <v>0.01170617931127782</v>
+      </c>
+      <c r="J50">
+        <v>-0.0188827196226923</v>
+      </c>
+      <c r="K50">
+        <v>0.009659699662338289</v>
+      </c>
+      <c r="L50">
+        <v>0.05759845215429189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>0.03385243485585866</v>
+        <v>-0.02311115978988006</v>
       </c>
       <c r="C51">
-        <v>-0.01181947730025614</v>
+        <v>0.000919090547704944</v>
       </c>
       <c r="D51">
-        <v>-0.01179608660277891</v>
+        <v>-0.01627859358729394</v>
       </c>
       <c r="E51">
-        <v>0.0006164573218137392</v>
+        <v>0.002291879236477712</v>
       </c>
       <c r="F51">
-        <v>0.003237934979311579</v>
+        <v>-0.02393213550665151</v>
       </c>
       <c r="G51">
-        <v>0.01552052891859051</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.01069931289999697</v>
+      </c>
+      <c r="H51">
+        <v>-0.00955963398649215</v>
+      </c>
+      <c r="I51">
+        <v>-0.0029736851580945</v>
+      </c>
+      <c r="J51">
+        <v>0.0517664291070802</v>
+      </c>
+      <c r="K51">
+        <v>-0.02832005333108601</v>
+      </c>
+      <c r="L51">
+        <v>-0.005643277607600891</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.05732527690081411</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.02859161525016154</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.001247874240575392</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.005011620702106114</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.02176359704106675</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>-0.07883899453919101</v>
+      </c>
+      <c r="H52">
+        <v>-0.02169487614631407</v>
+      </c>
+      <c r="I52">
+        <v>0.05850675790734419</v>
+      </c>
+      <c r="J52">
+        <v>-0.05180277772473755</v>
+      </c>
+      <c r="K52">
+        <v>-0.03026025516669616</v>
+      </c>
+      <c r="L52">
+        <v>-0.007763055323704796</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>0.1599378537537204</v>
+        <v>-0.1597535119736244</v>
       </c>
       <c r="C53">
-        <v>-0.01034926896750558</v>
+        <v>-0.03414839329466671</v>
       </c>
       <c r="D53">
-        <v>-0.008884055602099154</v>
+        <v>-0.02284122889685768</v>
       </c>
       <c r="E53">
-        <v>-0.1022501767273547</v>
+        <v>-0.0004937201250543871</v>
       </c>
       <c r="F53">
-        <v>0.2147411993926204</v>
+        <v>-0.0688154130406531</v>
       </c>
       <c r="G53">
-        <v>-0.06139281651349401</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.1464143497753942</v>
+      </c>
+      <c r="H53">
+        <v>-0.1723471165097629</v>
+      </c>
+      <c r="I53">
+        <v>0.1639798782298875</v>
+      </c>
+      <c r="J53">
+        <v>-0.1167591162619146</v>
+      </c>
+      <c r="K53">
+        <v>-0.0324911530702927</v>
+      </c>
+      <c r="L53">
+        <v>-0.008293161438039418</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>0.0501955540467079</v>
+        <v>-0.05634501735475436</v>
       </c>
       <c r="C54">
-        <v>-0.006846247160786293</v>
+        <v>-0.04123369681357641</v>
       </c>
       <c r="D54">
-        <v>-0.02477673009102746</v>
+        <v>-0.01196926288962889</v>
       </c>
       <c r="E54">
-        <v>0.05335680165953182</v>
+        <v>0.01663815833213406</v>
       </c>
       <c r="F54">
-        <v>0.02969827345280297</v>
+        <v>0.1297801158730855</v>
       </c>
       <c r="G54">
-        <v>0.07315315518065024</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.02590416587417654</v>
+      </c>
+      <c r="H54">
+        <v>-0.03051154078825073</v>
+      </c>
+      <c r="I54">
+        <v>-0.05027501039303583</v>
+      </c>
+      <c r="J54">
+        <v>-0.05794380451612312</v>
+      </c>
+      <c r="K54">
+        <v>0.1085172662719877</v>
+      </c>
+      <c r="L54">
+        <v>0.09677356593614123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>0.09357862878120517</v>
+        <v>-0.08982833708142587</v>
       </c>
       <c r="C55">
-        <v>-0.008020907482409514</v>
+        <v>-0.03531228077059365</v>
       </c>
       <c r="D55">
-        <v>-0.01531455696370814</v>
+        <v>-0.01819174291996842</v>
       </c>
       <c r="E55">
-        <v>-0.02338819444727419</v>
+        <v>-0.01937259445162358</v>
       </c>
       <c r="F55">
-        <v>0.1825438130730143</v>
+        <v>0.006512237481615119</v>
       </c>
       <c r="G55">
-        <v>-0.02861642649128724</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.07148801138315732</v>
+      </c>
+      <c r="H55">
+        <v>-0.1117413929548177</v>
+      </c>
+      <c r="I55">
+        <v>0.1146402085975163</v>
+      </c>
+      <c r="J55">
+        <v>-0.05259052286289964</v>
+      </c>
+      <c r="K55">
+        <v>0.004341886953963337</v>
+      </c>
+      <c r="L55">
+        <v>0.01772273662914073</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>0.1594905949558867</v>
+        <v>-0.1571115144259499</v>
       </c>
       <c r="C56">
-        <v>-0.0009243588454072624</v>
+        <v>-0.05461031760449591</v>
       </c>
       <c r="D56">
-        <v>-0.003330947204703004</v>
+        <v>-0.04473117086840311</v>
       </c>
       <c r="E56">
-        <v>-0.09199707383907538</v>
+        <v>-0.0163922936748653</v>
       </c>
       <c r="F56">
-        <v>0.21763963550464</v>
+        <v>-0.03695133671540168</v>
       </c>
       <c r="G56">
-        <v>-0.08847952523952504</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1354317554828811</v>
+      </c>
+      <c r="H56">
+        <v>-0.1459775950147681</v>
+      </c>
+      <c r="I56">
+        <v>0.165253891415489</v>
+      </c>
+      <c r="J56">
+        <v>-0.09046568336776045</v>
+      </c>
+      <c r="K56">
+        <v>-0.008931788415295419</v>
+      </c>
+      <c r="L56">
+        <v>-0.03461445042911401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2866,1697 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>0.03157058328409902</v>
+        <v>-0.04860553014419048</v>
       </c>
       <c r="C58">
-        <v>-0.04806714939149376</v>
+        <v>-0.04373652731039546</v>
       </c>
       <c r="D58">
-        <v>0.03273457662354687</v>
+        <v>0.01252871901567694</v>
       </c>
       <c r="E58">
-        <v>0.3804679481775916</v>
+        <v>0.08586663175788525</v>
       </c>
       <c r="F58">
-        <v>-0.3910020700363571</v>
+        <v>0.02548144293938625</v>
       </c>
       <c r="G58">
-        <v>0.154476712174197</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.02475521898655035</v>
+      </c>
+      <c r="H58">
+        <v>0.1321867437757056</v>
+      </c>
+      <c r="I58">
+        <v>-0.09340390183359931</v>
+      </c>
+      <c r="J58">
+        <v>0.1728633735610267</v>
+      </c>
+      <c r="K58">
+        <v>-0.05405985259853911</v>
+      </c>
+      <c r="L58">
+        <v>0.3586239827292841</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>0.1699916041005457</v>
+        <v>-0.2012679307605604</v>
       </c>
       <c r="C59">
-        <v>0.4020832540839658</v>
+        <v>0.3030419679194434</v>
       </c>
       <c r="D59">
-        <v>-0.09600880269666673</v>
+        <v>-0.016750309830028</v>
       </c>
       <c r="E59">
-        <v>-0.04605893183770128</v>
+        <v>-0.04419918242390549</v>
       </c>
       <c r="F59">
-        <v>0.0386567067144646</v>
+        <v>0.02302991628223387</v>
       </c>
       <c r="G59">
-        <v>0.0007222199656002332</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.04053775341720818</v>
+      </c>
+      <c r="H59">
+        <v>-0.1004595512099683</v>
+      </c>
+      <c r="I59">
+        <v>0.07541722631486608</v>
+      </c>
+      <c r="J59">
+        <v>0.0309331389236405</v>
+      </c>
+      <c r="K59">
+        <v>0.01813077205832069</v>
+      </c>
+      <c r="L59">
+        <v>-0.1025683734205338</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>0.2676470900123821</v>
+        <v>-0.2471279087317982</v>
       </c>
       <c r="C60">
-        <v>-0.07777923436520667</v>
+        <v>-0.1017411495620856</v>
       </c>
       <c r="D60">
-        <v>-0.07279719012462517</v>
+        <v>-0.1086008150503272</v>
       </c>
       <c r="E60">
-        <v>-0.05873948011918059</v>
+        <v>-0.04055170774055974</v>
       </c>
       <c r="F60">
-        <v>-0.08571970878061377</v>
+        <v>-0.1422424924069922</v>
       </c>
       <c r="G60">
-        <v>-0.2051669265073315</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.009761129914460967</v>
+      </c>
+      <c r="H60">
+        <v>0.05638854688299819</v>
+      </c>
+      <c r="I60">
+        <v>-0.04351931468978685</v>
+      </c>
+      <c r="J60">
+        <v>-0.06109725785749012</v>
+      </c>
+      <c r="K60">
+        <v>-0.252247909685412</v>
+      </c>
+      <c r="L60">
+        <v>-0.06495938708636642</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>0.09187348592330177</v>
+        <v>-0.1003678731424313</v>
       </c>
       <c r="C61">
-        <v>-0.02733046807431294</v>
+        <v>-0.04573090192382906</v>
       </c>
       <c r="D61">
-        <v>-0.002933305477290563</v>
+        <v>-0.02249042565973693</v>
       </c>
       <c r="E61">
-        <v>0.004111114222761299</v>
+        <v>-0.04950169511595771</v>
       </c>
       <c r="F61">
-        <v>0.02143940469166835</v>
+        <v>0.1308440122313021</v>
       </c>
       <c r="G61">
-        <v>0.06719786751454707</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.08014743546265402</v>
+      </c>
+      <c r="H61">
+        <v>-0.003514399125145604</v>
+      </c>
+      <c r="I61">
+        <v>0.02455618307318249</v>
+      </c>
+      <c r="J61">
+        <v>0.1279523691608335</v>
+      </c>
+      <c r="K61">
+        <v>-0.01035104286438296</v>
+      </c>
+      <c r="L61">
+        <v>0.02709207127364736</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0.1442739433722267</v>
+        <v>-0.1494890278831179</v>
       </c>
       <c r="C62">
-        <v>-0.02371408119374066</v>
+        <v>-0.053511164031849</v>
       </c>
       <c r="D62">
-        <v>0.03143306856699092</v>
+        <v>-0.0192349001162737</v>
       </c>
       <c r="E62">
-        <v>-0.154256610820294</v>
+        <v>-0.02290995829080424</v>
       </c>
       <c r="F62">
-        <v>0.2258498251216847</v>
+        <v>-0.05261046692760396</v>
       </c>
       <c r="G62">
-        <v>-0.02710090382468021</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.111603259463479</v>
+      </c>
+      <c r="H62">
+        <v>-0.120047525911703</v>
+      </c>
+      <c r="I62">
+        <v>0.1736125131348381</v>
+      </c>
+      <c r="J62">
+        <v>-0.1507197683230325</v>
+      </c>
+      <c r="K62">
+        <v>0.01464781457382352</v>
+      </c>
+      <c r="L62">
+        <v>-0.008418154790555589</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>0.04203708901540221</v>
+        <v>-0.04252186821138181</v>
       </c>
       <c r="C63">
-        <v>-0.01746215556783106</v>
+        <v>-0.01963721202335625</v>
       </c>
       <c r="D63">
-        <v>0.005428976974267702</v>
+        <v>0.01599758852203583</v>
       </c>
       <c r="E63">
-        <v>0.003965834448522186</v>
+        <v>-0.01048575390166429</v>
       </c>
       <c r="F63">
-        <v>0.01507970823456925</v>
+        <v>0.06055493356121976</v>
       </c>
       <c r="G63">
-        <v>0.03137183389247308</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.004734039583732974</v>
+      </c>
+      <c r="H63">
+        <v>-0.00284571162521854</v>
+      </c>
+      <c r="I63">
+        <v>-0.01195943443325278</v>
+      </c>
+      <c r="J63">
+        <v>0.01360844928359403</v>
+      </c>
+      <c r="K63">
+        <v>0.0001278844373860642</v>
+      </c>
+      <c r="L63">
+        <v>0.05627901122920462</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>0.1049927097674686</v>
+        <v>-0.09734979239415896</v>
       </c>
       <c r="C64">
-        <v>-0.01964457098306598</v>
+        <v>-0.04063313208615965</v>
       </c>
       <c r="D64">
-        <v>-0.04397079917468835</v>
+        <v>-0.04916729197116686</v>
       </c>
       <c r="E64">
-        <v>0.04102201512954425</v>
+        <v>0.01578724172040564</v>
       </c>
       <c r="F64">
-        <v>-0.01126226373905797</v>
+        <v>0.07989478241998101</v>
       </c>
       <c r="G64">
-        <v>0.04640258735991094</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.02874616425441662</v>
+      </c>
+      <c r="H64">
+        <v>0.03813477947212424</v>
+      </c>
+      <c r="I64">
+        <v>-0.09512762635669704</v>
+      </c>
+      <c r="J64">
+        <v>0.05449989238784671</v>
+      </c>
+      <c r="K64">
+        <v>-0.02711099027658544</v>
+      </c>
+      <c r="L64">
+        <v>-0.02470705227143164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>0.1206731057333385</v>
+        <v>-0.1185710306148073</v>
       </c>
       <c r="C65">
-        <v>-0.04519697509838066</v>
+        <v>-0.04050360883436248</v>
       </c>
       <c r="D65">
-        <v>-0.01850689918800496</v>
+        <v>0.01232581890575161</v>
       </c>
       <c r="E65">
-        <v>0.06941997543309243</v>
+        <v>-0.01247263224725715</v>
       </c>
       <c r="F65">
-        <v>-0.2198228460488689</v>
+        <v>-0.0332043650938296</v>
       </c>
       <c r="G65">
-        <v>-0.2307283873749507</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.05269896841379701</v>
+      </c>
+      <c r="H65">
+        <v>-0.05077236944445169</v>
+      </c>
+      <c r="I65">
+        <v>-0.4036771006262993</v>
+      </c>
+      <c r="J65">
+        <v>-0.4179576898153975</v>
+      </c>
+      <c r="K65">
+        <v>-0.3644156607608399</v>
+      </c>
+      <c r="L65">
+        <v>0.2190334150104286</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>0.1602978792193184</v>
+        <v>-0.1398025190894354</v>
       </c>
       <c r="C66">
-        <v>-0.0660162337173386</v>
+        <v>-0.1070412580239894</v>
       </c>
       <c r="D66">
-        <v>0.01989784529050771</v>
+        <v>-0.009298557592284632</v>
       </c>
       <c r="E66">
-        <v>-0.0164517980049942</v>
+        <v>-0.1098487710115938</v>
       </c>
       <c r="F66">
-        <v>0.05020848400353652</v>
+        <v>0.1423758527682876</v>
       </c>
       <c r="G66">
-        <v>0.3160868753947404</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.1321482931103952</v>
+      </c>
+      <c r="H66">
+        <v>0.07509700922568217</v>
+      </c>
+      <c r="I66">
+        <v>0.04878337077092662</v>
+      </c>
+      <c r="J66">
+        <v>0.2207249335912569</v>
+      </c>
+      <c r="K66">
+        <v>-0.1158752474490799</v>
+      </c>
+      <c r="L66">
+        <v>-0.09843551428116115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>0.09733659208305549</v>
+        <v>-0.07068129274413087</v>
       </c>
       <c r="C67">
-        <v>-0.03160242690489539</v>
+        <v>-0.040899426890345</v>
       </c>
       <c r="D67">
-        <v>-0.01571681735990004</v>
+        <v>-0.007630058596640976</v>
       </c>
       <c r="E67">
-        <v>0.0008446576241455819</v>
+        <v>0.01981997737178718</v>
       </c>
       <c r="F67">
-        <v>0.007263324665978238</v>
+        <v>-0.02559651001496512</v>
       </c>
       <c r="G67">
-        <v>0.04600249570790624</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01930924540913881</v>
+      </c>
+      <c r="H67">
+        <v>-0.01808361586382946</v>
+      </c>
+      <c r="I67">
+        <v>-0.05087615917816456</v>
+      </c>
+      <c r="J67">
+        <v>0.04080130952520833</v>
+      </c>
+      <c r="K67">
+        <v>0.05024082584182506</v>
+      </c>
+      <c r="L67">
+        <v>-0.1146997254983772</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>0.05617542193840528</v>
+        <v>-0.1035822889229998</v>
       </c>
       <c r="C68">
-        <v>0.2920244945069987</v>
+        <v>0.2806970064767781</v>
       </c>
       <c r="D68">
-        <v>-0.04236750934780383</v>
+        <v>0.02456299904096976</v>
       </c>
       <c r="E68">
-        <v>0.006604272313110058</v>
+        <v>-0.0140555924528914</v>
       </c>
       <c r="F68">
-        <v>0.0008487903334184839</v>
+        <v>0.04223185745130017</v>
       </c>
       <c r="G68">
-        <v>-0.02436198405786683</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01242725237010605</v>
+      </c>
+      <c r="H68">
+        <v>-0.02204384114216887</v>
+      </c>
+      <c r="I68">
+        <v>-0.01789793157448547</v>
+      </c>
+      <c r="J68">
+        <v>-0.02003972989630847</v>
+      </c>
+      <c r="K68">
+        <v>-0.0243671447599914</v>
+      </c>
+      <c r="L68">
+        <v>0.05597661278967278</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>0.04592685639072708</v>
+        <v>-0.04016542994820813</v>
       </c>
       <c r="C69">
-        <v>-0.01453716934024401</v>
+        <v>-0.004112268301159547</v>
       </c>
       <c r="D69">
-        <v>-0.009752876108869787</v>
+        <v>-0.01313362997985365</v>
       </c>
       <c r="E69">
-        <v>0.01306164485175387</v>
+        <v>0.005250130743089885</v>
       </c>
       <c r="F69">
-        <v>0.02782299415453009</v>
+        <v>0.01231844610633223</v>
       </c>
       <c r="G69">
-        <v>0.02618357444701364</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.03839484733001914</v>
+      </c>
+      <c r="H69">
+        <v>-0.02598196683051754</v>
+      </c>
+      <c r="I69">
+        <v>-0.01800831281451034</v>
+      </c>
+      <c r="J69">
+        <v>-0.007106073547261808</v>
+      </c>
+      <c r="K69">
+        <v>0.02254040765845261</v>
+      </c>
+      <c r="L69">
+        <v>0.01403562407622061</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>0.07623545187755582</v>
+        <v>-0.04985242554791405</v>
       </c>
       <c r="C70">
-        <v>-0.006589543770404604</v>
+        <v>-0.01438629671055497</v>
       </c>
       <c r="D70">
-        <v>-0.0419545107934997</v>
+        <v>-0.03437624150078945</v>
       </c>
       <c r="E70">
-        <v>-0.007226406614412984</v>
+        <v>-0.02472352116729674</v>
       </c>
       <c r="F70">
-        <v>-0.0929909292835607</v>
+        <v>0.02014989974547305</v>
       </c>
       <c r="G70">
-        <v>-0.003040859218017094</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>0.01406718288987934</v>
+      </c>
+      <c r="H70">
+        <v>0.004574951685014</v>
+      </c>
+      <c r="I70">
+        <v>-0.1453583943101392</v>
+      </c>
+      <c r="J70">
+        <v>-0.05106132071938849</v>
+      </c>
+      <c r="K70">
+        <v>0.3112200781933443</v>
+      </c>
+      <c r="L70">
+        <v>0.09091390275788903</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>0.06396490308240624</v>
+        <v>-0.1189931612979327</v>
       </c>
       <c r="C71">
-        <v>0.2850503743692943</v>
+        <v>0.2876667844523565</v>
       </c>
       <c r="D71">
-        <v>-0.06584395197656055</v>
+        <v>-0.006889531081521168</v>
       </c>
       <c r="E71">
-        <v>0.002664100487038528</v>
+        <v>-0.00173400510425862</v>
       </c>
       <c r="F71">
-        <v>-0.01034511566262127</v>
+        <v>0.0534211460519527</v>
       </c>
       <c r="G71">
-        <v>0.005518047590764479</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.04020104573403373</v>
+      </c>
+      <c r="H71">
+        <v>0.006289871924574211</v>
+      </c>
+      <c r="I71">
+        <v>-0.02145579945660732</v>
+      </c>
+      <c r="J71">
+        <v>0.008984027129243686</v>
+      </c>
+      <c r="K71">
+        <v>-0.02974924569910948</v>
+      </c>
+      <c r="L71">
+        <v>0.01347293429521532</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>0.1578990956560187</v>
+        <v>-0.1495458884911285</v>
       </c>
       <c r="C72">
-        <v>0.03699348671045249</v>
+        <v>-0.01708643204073062</v>
       </c>
       <c r="D72">
-        <v>0.2331362797955698</v>
+        <v>0.09220743780918245</v>
       </c>
       <c r="E72">
-        <v>-0.02580891246895721</v>
+        <v>-0.02934411891022015</v>
       </c>
       <c r="F72">
-        <v>0.04871080731562496</v>
+        <v>-0.003686006294745982</v>
       </c>
       <c r="G72">
-        <v>0.05054722006973449</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.07097261503678408</v>
+      </c>
+      <c r="H72">
+        <v>-0.03416028061416042</v>
+      </c>
+      <c r="I72">
+        <v>0.01663214645805017</v>
+      </c>
+      <c r="J72">
+        <v>-0.1223324525957739</v>
+      </c>
+      <c r="K72">
+        <v>-0.0918742470552576</v>
+      </c>
+      <c r="L72">
+        <v>-0.05941440991138872</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>0.2908741429514566</v>
+        <v>-0.2404992642711618</v>
       </c>
       <c r="C73">
-        <v>-0.1791135982971395</v>
+        <v>-0.1170837402465771</v>
       </c>
       <c r="D73">
-        <v>-0.05238674748159369</v>
+        <v>-0.1606907240473239</v>
       </c>
       <c r="E73">
-        <v>-0.1147871175030551</v>
+        <v>-0.1063567700955609</v>
       </c>
       <c r="F73">
-        <v>-0.3099571346861958</v>
+        <v>-0.4534515419103447</v>
       </c>
       <c r="G73">
-        <v>-0.2135846139468842</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.01092150280714087</v>
+      </c>
+      <c r="H73">
+        <v>0.2218871675659901</v>
+      </c>
+      <c r="I73">
+        <v>-0.1166466638864173</v>
+      </c>
+      <c r="J73">
+        <v>0.2740204738687614</v>
+      </c>
+      <c r="K73">
+        <v>-0.1670780081808261</v>
+      </c>
+      <c r="L73">
+        <v>-0.06365878178009969</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>0.0949407429643956</v>
+        <v>-0.1115068807125412</v>
       </c>
       <c r="C74">
-        <v>-0.03560057354438855</v>
+        <v>-0.07174615350951083</v>
       </c>
       <c r="D74">
-        <v>0.0009486353341185355</v>
+        <v>-0.008587262794511434</v>
       </c>
       <c r="E74">
-        <v>-0.02686457391649187</v>
+        <v>-0.006124517641309601</v>
       </c>
       <c r="F74">
-        <v>0.09269869362514961</v>
+        <v>-0.04137146461126152</v>
       </c>
       <c r="G74">
-        <v>-0.03670405881937509</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.1229132428639574</v>
+      </c>
+      <c r="H74">
+        <v>-0.06957963470308921</v>
+      </c>
+      <c r="I74">
+        <v>0.08220472514969555</v>
+      </c>
+      <c r="J74">
+        <v>-0.04068708580681055</v>
+      </c>
+      <c r="K74">
+        <v>0.0001228348017659218</v>
+      </c>
+      <c r="L74">
+        <v>0.003433484807952135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>0.09219369406232283</v>
+        <v>-0.1038401270104932</v>
       </c>
       <c r="C75">
-        <v>-0.008588160411214818</v>
+        <v>-0.04835733571050597</v>
       </c>
       <c r="D75">
-        <v>0.01748314115008405</v>
+        <v>-0.001207071474142247</v>
       </c>
       <c r="E75">
-        <v>-0.03554373052733129</v>
+        <v>-0.005232090836201545</v>
       </c>
       <c r="F75">
-        <v>0.1095665821711082</v>
+        <v>-0.03336658346436949</v>
       </c>
       <c r="G75">
-        <v>-0.07107345085812521</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.04156219984894238</v>
+      </c>
+      <c r="H75">
+        <v>-0.09936628115725543</v>
+      </c>
+      <c r="I75">
+        <v>0.100727678197105</v>
+      </c>
+      <c r="J75">
+        <v>-0.05237969514035635</v>
+      </c>
+      <c r="K75">
+        <v>0.0016056342700279</v>
+      </c>
+      <c r="L75">
+        <v>0.00585993426648659</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>0.1348646834130453</v>
+        <v>-0.06550145679802925</v>
       </c>
       <c r="C76">
-        <v>-0.03920793750684953</v>
+        <v>-0.03462213748312283</v>
       </c>
       <c r="D76">
-        <v>-0.006842769119179888</v>
+        <v>-0.02786308479599074</v>
       </c>
       <c r="E76">
-        <v>-0.03041534032389212</v>
+        <v>0.002891216255716457</v>
       </c>
       <c r="F76">
-        <v>0.2188689246806948</v>
+        <v>-0.06769593078309807</v>
       </c>
       <c r="G76">
-        <v>-0.1177265102901053</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04807575593155249</v>
+      </c>
+      <c r="H76">
+        <v>-0.1453388969330146</v>
+      </c>
+      <c r="I76">
+        <v>0.1032847976800524</v>
+      </c>
+      <c r="J76">
+        <v>-0.004333717316871211</v>
+      </c>
+      <c r="K76">
+        <v>0.03402499477176706</v>
+      </c>
+      <c r="L76">
+        <v>0.02891627050508638</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>0.08714271251648868</v>
+        <v>-0.0742097639608402</v>
       </c>
       <c r="C77">
-        <v>-0.007711611315694872</v>
+        <v>-0.03043673374782316</v>
       </c>
       <c r="D77">
-        <v>-0.0484431027889977</v>
+        <v>-0.04012068176561558</v>
       </c>
       <c r="E77">
-        <v>0.07230644730359673</v>
+        <v>-0.007256685478714105</v>
       </c>
       <c r="F77">
-        <v>-0.1011592476298899</v>
+        <v>0.2264079844992501</v>
       </c>
       <c r="G77">
-        <v>0.3009110930713682</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.03884642791364418</v>
+      </c>
+      <c r="H77">
+        <v>0.003323138080893018</v>
+      </c>
+      <c r="I77">
+        <v>-0.2236303002675803</v>
+      </c>
+      <c r="J77">
+        <v>-0.02740691247439698</v>
+      </c>
+      <c r="K77">
+        <v>-0.02705816595719598</v>
+      </c>
+      <c r="L77">
+        <v>-0.6607707377055602</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>0.2031859391343152</v>
+        <v>-0.1597062067995242</v>
       </c>
       <c r="C78">
-        <v>-0.06017704647762041</v>
+        <v>-0.1055902544142804</v>
       </c>
       <c r="D78">
-        <v>-0.06475716395813962</v>
+        <v>0.04666672644404476</v>
       </c>
       <c r="E78">
-        <v>0.2156059852681127</v>
+        <v>0.1790440611719424</v>
       </c>
       <c r="F78">
-        <v>0.0417588811835853</v>
+        <v>0.1526303240844246</v>
       </c>
       <c r="G78">
-        <v>0.05285085514428063</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.7472067552700059</v>
+      </c>
+      <c r="H78">
+        <v>-0.4100124645054614</v>
+      </c>
+      <c r="I78">
+        <v>0.1619452835624797</v>
+      </c>
+      <c r="J78">
+        <v>0.1724706494153189</v>
+      </c>
+      <c r="K78">
+        <v>-0.1733312512002772</v>
+      </c>
+      <c r="L78">
+        <v>-0.01713171896412324</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>0.1371241865100147</v>
+        <v>-0.1330430075958115</v>
       </c>
       <c r="C79">
-        <v>-0.01866635819470194</v>
+        <v>-0.05013588691655662</v>
       </c>
       <c r="D79">
-        <v>0.008246039075421759</v>
+        <v>-0.01798751956920135</v>
       </c>
       <c r="E79">
-        <v>-0.04445799232052859</v>
+        <v>0.004963945472331946</v>
       </c>
       <c r="F79">
-        <v>0.1662735988162991</v>
+        <v>-0.006558270710685573</v>
       </c>
       <c r="G79">
-        <v>-0.01249627492867053</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.110131161133475</v>
+      </c>
+      <c r="H79">
+        <v>-0.1016801905773292</v>
+      </c>
+      <c r="I79">
+        <v>0.1124821902455587</v>
+      </c>
+      <c r="J79">
+        <v>-0.08826889159803231</v>
+      </c>
+      <c r="K79">
+        <v>-0.00798008522930798</v>
+      </c>
+      <c r="L79">
+        <v>-0.0005132993733944483</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>0.03645352921647929</v>
+        <v>-0.06458549385174588</v>
       </c>
       <c r="C80">
-        <v>-0.01231839072375474</v>
+        <v>-0.03276957737808851</v>
       </c>
       <c r="D80">
-        <v>-0.006514090652234502</v>
+        <v>-0.02125744249521324</v>
       </c>
       <c r="E80">
-        <v>-0.04339894428867976</v>
+        <v>-0.0667845137262679</v>
       </c>
       <c r="F80">
-        <v>-0.03319541380148584</v>
+        <v>0.0305691229525567</v>
       </c>
       <c r="G80">
-        <v>0.03718710734398135</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.00234130805469146</v>
+      </c>
+      <c r="H80">
+        <v>-0.07068938004241929</v>
+      </c>
+      <c r="I80">
+        <v>-0.05187462025425374</v>
+      </c>
+      <c r="J80">
+        <v>0.04350244733084681</v>
+      </c>
+      <c r="K80">
+        <v>0.08789526572125296</v>
+      </c>
+      <c r="L80">
+        <v>0.2490812835634284</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>0.1087040529380736</v>
+        <v>-0.1285952242668401</v>
       </c>
       <c r="C81">
-        <v>-0.0192136943322913</v>
+        <v>-0.05968117812679679</v>
       </c>
       <c r="D81">
-        <v>-0.01144534052701212</v>
+        <v>-0.02417140027911357</v>
       </c>
       <c r="E81">
-        <v>-0.04625013388671848</v>
+        <v>0.005200494083818343</v>
       </c>
       <c r="F81">
-        <v>0.1331371084448357</v>
+        <v>0.006808290031179605</v>
       </c>
       <c r="G81">
-        <v>-0.04589953358364181</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.07050636920127253</v>
+      </c>
+      <c r="H81">
+        <v>-0.05689942763728625</v>
+      </c>
+      <c r="I81">
+        <v>0.1165037195818991</v>
+      </c>
+      <c r="J81">
+        <v>-0.05538188854160549</v>
+      </c>
+      <c r="K81">
+        <v>0.009775435692341596</v>
+      </c>
+      <c r="L81">
+        <v>-0.003363362380131093</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>0.1075933378932288</v>
+        <v>-0.1369545781307697</v>
       </c>
       <c r="C82">
-        <v>-0.02546537532489527</v>
+        <v>-0.04592907671883434</v>
       </c>
       <c r="D82">
-        <v>-0.05236669349882315</v>
+        <v>-0.0412974543277049</v>
       </c>
       <c r="E82">
-        <v>-0.08791268307401549</v>
+        <v>-0.01285673769759836</v>
       </c>
       <c r="F82">
-        <v>0.2287728077579621</v>
+        <v>-0.03329203510168505</v>
       </c>
       <c r="G82">
-        <v>-0.00320605358114501</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.1555455604716643</v>
+      </c>
+      <c r="H82">
+        <v>-0.1175105807211053</v>
+      </c>
+      <c r="I82">
+        <v>0.2113126161754993</v>
+      </c>
+      <c r="J82">
+        <v>-0.06286617582541557</v>
+      </c>
+      <c r="K82">
+        <v>0.1068086140212673</v>
+      </c>
+      <c r="L82">
+        <v>0.01748213591401445</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>0.1016333257102534</v>
+        <v>-0.09267152165009697</v>
       </c>
       <c r="C83">
-        <v>-0.06160240061047087</v>
+        <v>-0.1086869355902678</v>
       </c>
       <c r="D83">
-        <v>-0.05930920859249997</v>
+        <v>-0.02258710142961562</v>
       </c>
       <c r="E83">
-        <v>0.01361780324081053</v>
+        <v>-0.009132300032694668</v>
       </c>
       <c r="F83">
-        <v>-0.05732760727651009</v>
+        <v>0.07744946392912007</v>
       </c>
       <c r="G83">
-        <v>0.1126160812589073</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.02082047633066936</v>
+      </c>
+      <c r="H83">
+        <v>-0.08687792779816855</v>
+      </c>
+      <c r="I83">
+        <v>-0.1481332457609709</v>
+      </c>
+      <c r="J83">
+        <v>0.03614412983543897</v>
+      </c>
+      <c r="K83">
+        <v>0.1975417645465838</v>
+      </c>
+      <c r="L83">
+        <v>0.04167126083231493</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>0.0572878216581322</v>
+        <v>-0.05361081298887675</v>
       </c>
       <c r="C84">
-        <v>-0.028536252544665</v>
+        <v>0.0368595998395885</v>
       </c>
       <c r="D84">
-        <v>0.04572390115499557</v>
+        <v>-0.002868362630240663</v>
       </c>
       <c r="E84">
-        <v>0.03288164922208881</v>
+        <v>-0.02075816127729665</v>
       </c>
       <c r="F84">
-        <v>0.03650495602167232</v>
+        <v>-0.003983148176368989</v>
       </c>
       <c r="G84">
-        <v>-0.02703702078168869</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.1729135184651497</v>
+      </c>
+      <c r="H84">
+        <v>0.227274527298588</v>
+      </c>
+      <c r="I84">
+        <v>0.2110811521127313</v>
+      </c>
+      <c r="J84">
+        <v>0.186420552691112</v>
+      </c>
+      <c r="K84">
+        <v>0.04781169827795771</v>
+      </c>
+      <c r="L84">
+        <v>0.1937410429648973</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>0.0993215228886007</v>
+        <v>-0.1141392384060484</v>
       </c>
       <c r="C85">
-        <v>-0.02759718871884969</v>
+        <v>-0.0421030362509729</v>
       </c>
       <c r="D85">
-        <v>-0.02264945224473964</v>
+        <v>-0.04650619571709585</v>
       </c>
       <c r="E85">
-        <v>-0.04631274253950688</v>
+        <v>-0.0002736049277685952</v>
       </c>
       <c r="F85">
-        <v>0.1928316662632976</v>
+        <v>-0.002345871745816484</v>
       </c>
       <c r="G85">
-        <v>-0.01173654193725549</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.09986414730422272</v>
+      </c>
+      <c r="H85">
+        <v>-0.1027247729012278</v>
+      </c>
+      <c r="I85">
+        <v>0.1236437983946079</v>
+      </c>
+      <c r="J85">
+        <v>-0.08866727667688712</v>
+      </c>
+      <c r="K85">
+        <v>-0.02823374487767947</v>
+      </c>
+      <c r="L85">
+        <v>-0.0255143389096041</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>0.06178631125061362</v>
+        <v>-0.08536479572524897</v>
       </c>
       <c r="C86">
-        <v>-0.02871009199190557</v>
+        <v>-0.03063682618975622</v>
       </c>
       <c r="D86">
-        <v>-0.04644491988164597</v>
+        <v>-0.1111972331341825</v>
       </c>
       <c r="E86">
-        <v>0.05539105065599063</v>
+        <v>0.03851424441996856</v>
       </c>
       <c r="F86">
-        <v>-0.03333315732065582</v>
+        <v>0.07191334475101017</v>
       </c>
       <c r="G86">
-        <v>0.1185253731972463</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.2743136626026154</v>
+      </c>
+      <c r="H86">
+        <v>0.5665312623071483</v>
+      </c>
+      <c r="I86">
+        <v>0.3854880317976419</v>
+      </c>
+      <c r="J86">
+        <v>-0.4112950661354306</v>
+      </c>
+      <c r="K86">
+        <v>0.007550941270391193</v>
+      </c>
+      <c r="L86">
+        <v>-0.007956068390257583</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>0.1037544767027329</v>
+        <v>-0.1138476704187925</v>
       </c>
       <c r="C87">
-        <v>-0.05368848590663316</v>
+        <v>-0.09145440104632233</v>
       </c>
       <c r="D87">
-        <v>-0.02049582998438464</v>
+        <v>-0.03776569311620787</v>
       </c>
       <c r="E87">
-        <v>0.06942501034155452</v>
+        <v>0.03154052965882174</v>
       </c>
       <c r="F87">
-        <v>0.01812571079867995</v>
+        <v>0.1166630603631882</v>
       </c>
       <c r="G87">
-        <v>0.09957837867813864</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.01918438187626154</v>
+      </c>
+      <c r="H87">
+        <v>0.05717284195888621</v>
+      </c>
+      <c r="I87">
+        <v>-0.1345304755289256</v>
+      </c>
+      <c r="J87">
+        <v>-0.1194317768935938</v>
+      </c>
+      <c r="K87">
+        <v>0.1382853070824771</v>
+      </c>
+      <c r="L87">
+        <v>-0.2408436225308976</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>0.06443781381131655</v>
+        <v>-0.05707172451169139</v>
       </c>
       <c r="C88">
-        <v>-0.03347876125890529</v>
+        <v>-0.04820351982644656</v>
       </c>
       <c r="D88">
-        <v>-0.02441364092789761</v>
+        <v>-0.0297219325758274</v>
       </c>
       <c r="E88">
-        <v>0.009948946916103778</v>
+        <v>-0.0283378591536311</v>
       </c>
       <c r="F88">
-        <v>-0.0009303438806058498</v>
+        <v>0.03468151220841026</v>
       </c>
       <c r="G88">
-        <v>0.0689128982678309</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.04245621688290078</v>
+      </c>
+      <c r="H88">
+        <v>-0.001384260542837463</v>
+      </c>
+      <c r="I88">
+        <v>-0.02296851407985744</v>
+      </c>
+      <c r="J88">
+        <v>0.05153021176355802</v>
+      </c>
+      <c r="K88">
+        <v>-0.00453868614752189</v>
+      </c>
+      <c r="L88">
+        <v>0.06196569531070082</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>0.1133390601854479</v>
+        <v>-0.1754932947113274</v>
       </c>
       <c r="C89">
-        <v>0.3605620450694849</v>
+        <v>0.3756028086608834</v>
       </c>
       <c r="D89">
-        <v>-0.1208303556430087</v>
+        <v>-0.02842830401865118</v>
       </c>
       <c r="E89">
-        <v>0.04901186401181057</v>
+        <v>0.048653744070775</v>
       </c>
       <c r="F89">
-        <v>-0.06858064292208543</v>
+        <v>0.02668197952784112</v>
       </c>
       <c r="G89">
-        <v>0.02943539260205466</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.0347721737956812</v>
+      </c>
+      <c r="H89">
+        <v>0.005684179239122531</v>
+      </c>
+      <c r="I89">
+        <v>-0.06212815260983334</v>
+      </c>
+      <c r="J89">
+        <v>0.04996914450840211</v>
+      </c>
+      <c r="K89">
+        <v>0.05999019647001477</v>
+      </c>
+      <c r="L89">
+        <v>0.03234404802778276</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>0.0894331158714239</v>
+        <v>-0.1368075458086473</v>
       </c>
       <c r="C90">
-        <v>0.2844010983274652</v>
+        <v>0.2740654821181387</v>
       </c>
       <c r="D90">
-        <v>-0.06180105579804537</v>
+        <v>-0.01167001599584709</v>
       </c>
       <c r="E90">
-        <v>0.05558307180892603</v>
+        <v>0.0006589349180008553</v>
       </c>
       <c r="F90">
-        <v>-0.03616378293931772</v>
+        <v>0.04372563788297098</v>
       </c>
       <c r="G90">
-        <v>0.08171348622386913</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02308202632315738</v>
+      </c>
+      <c r="H90">
+        <v>0.05761357902565209</v>
+      </c>
+      <c r="I90">
+        <v>-0.02303683229693577</v>
+      </c>
+      <c r="J90">
+        <v>0.04085824384406658</v>
+      </c>
+      <c r="K90">
+        <v>-0.03777306683525172</v>
+      </c>
+      <c r="L90">
+        <v>-0.01414701623686102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>0.0833212322765326</v>
+        <v>-0.08075645296947172</v>
       </c>
       <c r="C91">
-        <v>-0.02306857455319175</v>
+        <v>-0.04153773243375838</v>
       </c>
       <c r="D91">
-        <v>-0.001026442954454753</v>
+        <v>-0.02766041411976658</v>
       </c>
       <c r="E91">
-        <v>-0.02266184156529259</v>
+        <v>0.006259743350408362</v>
       </c>
       <c r="F91">
-        <v>0.07073001233398327</v>
+        <v>-0.0272466691955191</v>
       </c>
       <c r="G91">
-        <v>-0.07240923314530126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.05795346548043259</v>
+      </c>
+      <c r="H91">
+        <v>-0.0610725052602825</v>
+      </c>
+      <c r="I91">
+        <v>0.07892389249241671</v>
+      </c>
+      <c r="J91">
+        <v>-0.03039692327963723</v>
+      </c>
+      <c r="K91">
+        <v>0.007448411550778964</v>
+      </c>
+      <c r="L91">
+        <v>0.01619381281383016</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>0.08705251465462917</v>
+        <v>-0.1487137455690775</v>
       </c>
       <c r="C92">
-        <v>0.3351660713539426</v>
+        <v>0.3297563223806495</v>
       </c>
       <c r="D92">
-        <v>-0.07637276443145317</v>
+        <v>7.508158784003194e-05</v>
       </c>
       <c r="E92">
-        <v>0.0411918801321688</v>
+        <v>0.03996278297139844</v>
       </c>
       <c r="F92">
-        <v>-0.03504146339723595</v>
+        <v>0.06140122955748944</v>
       </c>
       <c r="G92">
-        <v>-0.06285543777552212</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.009496682466645989</v>
+      </c>
+      <c r="H92">
+        <v>-0.03689067698730546</v>
+      </c>
+      <c r="I92">
+        <v>0.00975191526225851</v>
+      </c>
+      <c r="J92">
+        <v>0.03709009788298745</v>
+      </c>
+      <c r="K92">
+        <v>0.006822375742866667</v>
+      </c>
+      <c r="L92">
+        <v>0.03404518993142623</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>0.1012620472320787</v>
+        <v>-0.1407150403449984</v>
       </c>
       <c r="C93">
-        <v>0.2834569832301206</v>
+        <v>0.3093282205191014</v>
       </c>
       <c r="D93">
-        <v>-0.05945774415661482</v>
+        <v>-0.02280575144156862</v>
       </c>
       <c r="E93">
-        <v>0.01150361106973135</v>
+        <v>-0.0255347376635846</v>
       </c>
       <c r="F93">
-        <v>-0.02272308475173792</v>
+        <v>0.01547932194278069</v>
       </c>
       <c r="G93">
-        <v>-0.01191467253903154</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.021471638617791</v>
+      </c>
+      <c r="H93">
+        <v>0.0512260845613763</v>
+      </c>
+      <c r="I93">
+        <v>-0.002204306269892364</v>
+      </c>
+      <c r="J93">
+        <v>-0.02251028341599645</v>
+      </c>
+      <c r="K93">
+        <v>0.001698701206686706</v>
+      </c>
+      <c r="L93">
+        <v>0.01908802737701415</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>0.09089877601294639</v>
+        <v>-0.1207850308262158</v>
       </c>
       <c r="C94">
-        <v>-0.04674860534156653</v>
+        <v>-0.05963841563738927</v>
       </c>
       <c r="D94">
-        <v>0.009306509241202186</v>
+        <v>-0.01581001850879079</v>
       </c>
       <c r="E94">
-        <v>-0.027641018697513</v>
+        <v>0.01210813661780823</v>
       </c>
       <c r="F94">
-        <v>0.1298475818093186</v>
+        <v>-0.04507516854141199</v>
       </c>
       <c r="G94">
-        <v>-0.05336197272719267</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.08112155779988246</v>
+      </c>
+      <c r="H94">
+        <v>-0.08057036265456717</v>
+      </c>
+      <c r="I94">
+        <v>0.1152480043052414</v>
+      </c>
+      <c r="J94">
+        <v>-0.01205673650997727</v>
+      </c>
+      <c r="K94">
+        <v>-0.01596023898373247</v>
+      </c>
+      <c r="L94">
+        <v>0.05093711504827193</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>0.1308395105520105</v>
+        <v>-0.1238837411928288</v>
       </c>
       <c r="C95">
-        <v>-0.07018254056416486</v>
+        <v>-0.06899228039371195</v>
       </c>
       <c r="D95">
-        <v>-0.06141290045997843</v>
+        <v>-0.0461049409014294</v>
       </c>
       <c r="E95">
-        <v>0.02726130298923144</v>
+        <v>0.02140055537882649</v>
       </c>
       <c r="F95">
-        <v>-0.04744109666124976</v>
+        <v>0.06540207550907368</v>
       </c>
       <c r="G95">
-        <v>0.1072584345845491</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.1255619057227703</v>
+      </c>
+      <c r="H95">
+        <v>0.1912434166736394</v>
+      </c>
+      <c r="I95">
+        <v>-0.07027027835354192</v>
+      </c>
+      <c r="J95">
+        <v>-0.08366673393566917</v>
+      </c>
+      <c r="K95">
+        <v>0.08638856136083004</v>
+      </c>
+      <c r="L95">
+        <v>0.09452561330315198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.004986358453953211</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.004908980389089531</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.0008025252617354674</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.0003022362218621956</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.005215357053678769</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>0.019030713056881</v>
+      </c>
+      <c r="H96">
+        <v>-0.01646702779120134</v>
+      </c>
+      <c r="I96">
+        <v>-0.01173810255478802</v>
+      </c>
+      <c r="J96">
+        <v>0.002984773998223676</v>
+      </c>
+      <c r="K96">
+        <v>-0.006230483416536146</v>
+      </c>
+      <c r="L96">
+        <v>-0.01458489360871685</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>0.211019414711631</v>
+        <v>-0.1950106282134265</v>
       </c>
       <c r="C97">
-        <v>0.1597777894484047</v>
+        <v>-0.05537119855226044</v>
       </c>
       <c r="D97">
-        <v>0.8971053559168002</v>
+        <v>0.9322034587998288</v>
       </c>
       <c r="E97">
-        <v>0.006672750717285235</v>
+        <v>-0.1485654547200654</v>
       </c>
       <c r="F97">
-        <v>-0.08129804311469969</v>
+        <v>-0.07097460273154016</v>
       </c>
       <c r="G97">
-        <v>0.04097307905624515</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.01403255882114207</v>
+      </c>
+      <c r="H97">
+        <v>0.1204158904460862</v>
+      </c>
+      <c r="I97">
+        <v>0.0296904381233426</v>
+      </c>
+      <c r="J97">
+        <v>-0.02794256612865219</v>
+      </c>
+      <c r="K97">
+        <v>0.03694274291304909</v>
+      </c>
+      <c r="L97">
+        <v>-0.04264482622047595</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>0.3021829197626237</v>
+        <v>-0.2563217187914064</v>
       </c>
       <c r="C98">
-        <v>-0.09035605584320341</v>
+        <v>-0.08265000477627933</v>
       </c>
       <c r="D98">
-        <v>-0.07357585016440882</v>
+        <v>-0.0425857801154218</v>
       </c>
       <c r="E98">
-        <v>-0.2074252620485011</v>
+        <v>0.01776784589573871</v>
       </c>
       <c r="F98">
-        <v>-0.2770919352267622</v>
+        <v>-0.3867087434921967</v>
       </c>
       <c r="G98">
-        <v>-0.2203654977542394</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.2029433947170126</v>
+      </c>
+      <c r="H98">
+        <v>-0.06826469359075465</v>
+      </c>
+      <c r="I98">
+        <v>-0.2121310381866026</v>
+      </c>
+      <c r="J98">
+        <v>0.04347654540517269</v>
+      </c>
+      <c r="K98">
+        <v>0.536606860820517</v>
+      </c>
+      <c r="L98">
+        <v>-0.0419039004248486</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0.08058788264521451</v>
+        <v>-0.06449258951652485</v>
       </c>
       <c r="C99">
-        <v>-0.03218640497568282</v>
+        <v>-0.03347535759682672</v>
       </c>
       <c r="D99">
-        <v>-0.00955658526318816</v>
+        <v>-0.01920693592155238</v>
       </c>
       <c r="E99">
-        <v>0.01145384795597385</v>
+        <v>0.008073997223628067</v>
       </c>
       <c r="F99">
-        <v>0.03697426271945918</v>
+        <v>-0.01473192486607788</v>
       </c>
       <c r="G99">
-        <v>0.01510385232052262</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.007990353846017449</v>
+      </c>
+      <c r="H99">
+        <v>-0.0323693494894533</v>
+      </c>
+      <c r="I99">
+        <v>0.007443782909332975</v>
+      </c>
+      <c r="J99">
+        <v>0.05043942158831331</v>
+      </c>
+      <c r="K99">
+        <v>-0.007397760807048094</v>
+      </c>
+      <c r="L99">
+        <v>-0.003172786666620255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.00433035320966007</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.0008894742010472278</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.06627051390783389</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.02009475826296022</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.04098089543937159</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>-0.007179591619333898</v>
+      </c>
+      <c r="H100">
+        <v>8.8626634002821e-05</v>
+      </c>
+      <c r="I100">
+        <v>-0.05662133060601982</v>
+      </c>
+      <c r="J100">
+        <v>-0.000618235152711259</v>
+      </c>
+      <c r="K100">
+        <v>0.07164452141605399</v>
+      </c>
+      <c r="L100">
+        <v>0.03125102230284064</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>0.05527012873698401</v>
+        <v>-0.04252740321883643</v>
       </c>
       <c r="C101">
-        <v>-0.006711727679251981</v>
+        <v>-0.02717548008203412</v>
       </c>
       <c r="D101">
-        <v>-0.01964839981152041</v>
+        <v>-0.02691432688126106</v>
       </c>
       <c r="E101">
-        <v>0.03708950899993568</v>
+        <v>-0.001409688485153458</v>
       </c>
       <c r="F101">
-        <v>0.03023094622909939</v>
+        <v>0.06353844601833342</v>
       </c>
       <c r="G101">
-        <v>0.01457765191815599</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.03067635182400158</v>
+      </c>
+      <c r="H101">
+        <v>-0.0102596093530877</v>
+      </c>
+      <c r="I101">
+        <v>-0.007335076817320737</v>
+      </c>
+      <c r="J101">
+        <v>-0.03054721040908229</v>
+      </c>
+      <c r="K101">
+        <v>0.064018749713151</v>
+      </c>
+      <c r="L101">
+        <v>0.07570547865793827</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4576,25 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4614,25 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4650,21 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
